--- a/TestList/7.0JSJGPTJS-AutomatedProcess.xlsx
+++ b/TestList/7.0JSJGPTJS-AutomatedProcess.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12090"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="277">
   <si>
     <t>序号</t>
   </si>
@@ -914,6 +914,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -922,7 +929,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,13 +937,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -951,23 +951,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -982,29 +997,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1012,16 +1004,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,7 +1022,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1045,6 +1030,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1066,13 +1066,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,13 +1096,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,7 +1120,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,7 +1150,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1138,7 +1192,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1150,25 +1216,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,73 +1246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,36 +1257,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1322,17 +1292,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1349,6 +1308,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1357,16 +1346,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1375,131 +1375,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1897,8 +1897,8 @@
   <sheetPr/>
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:F37"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2633,8 +2633,8 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>34</v>
+      <c r="A37" s="1">
+        <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>96</v>
@@ -4414,11 +4414,11 @@
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D121 D122 D123 D124 D125 D117:D120">
+      <formula1>"URL,Xpath"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D126:D65505">
       <formula1>"xpath,name,id,css,text"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9 D100 D101 D102 D103 D104 D105 D106 D107 D108 D109 D110 D111 D112 D113 D114 D115 D116 D121 D122 D123 D124 D125 D117:D120">
-      <formula1>"URL,Xpath"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
